--- a/1/4/Tipo de Cambio 1984 a 2021 - Anual.xlsx
+++ b/1/4/Tipo de Cambio 1984 a 2021 - Anual.xlsx
@@ -976,7 +976,7 @@
         <v>106.4</v>
       </c>
       <c r="D37">
-        <v>95.04000000000001</v>
+        <v>95.03</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -990,7 +990,7 @@
         <v>114.95</v>
       </c>
       <c r="D38">
-        <v>102.43</v>
+        <v>102.85</v>
       </c>
     </row>
   </sheetData>
